--- a/data/processed/state_overviews/massachusetts_overview.xlsx
+++ b/data/processed/state_overviews/massachusetts_overview.xlsx
@@ -389,8 +389,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2">
-        <v>3018</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -420,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -464,8 +466,10 @@
           <t>Barnstable County</t>
         </is>
       </c>
-      <c r="B2">
-        <v>151</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -494,8 +498,10 @@
           <t>Berkshire County</t>
         </is>
       </c>
-      <c r="B3">
-        <v>119</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -524,8 +530,10 @@
           <t>Bristol County</t>
         </is>
       </c>
-      <c r="B4">
-        <v>147</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -554,8 +562,10 @@
           <t>Dukes County</t>
         </is>
       </c>
-      <c r="B5">
-        <v>30</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -584,8 +594,10 @@
           <t>Essex County</t>
         </is>
       </c>
-      <c r="B6">
-        <v>271</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -614,8 +626,10 @@
           <t>Franklin County</t>
         </is>
       </c>
-      <c r="B7">
-        <v>35</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -644,8 +658,10 @@
           <t>Hampden County</t>
         </is>
       </c>
-      <c r="B8">
-        <v>153</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -674,8 +690,10 @@
           <t>Hampshire County</t>
         </is>
       </c>
-      <c r="B9">
-        <v>96</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -704,8 +722,10 @@
           <t>Middlesex County</t>
         </is>
       </c>
-      <c r="B10">
-        <v>702</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>702</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -734,8 +754,10 @@
           <t>Nantucket County</t>
         </is>
       </c>
-      <c r="B11">
-        <v>31</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -764,8 +786,10 @@
           <t>Norfolk County</t>
         </is>
       </c>
-      <c r="B12">
-        <v>222</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -794,8 +818,10 @@
           <t>Plymouth County</t>
         </is>
       </c>
-      <c r="B13">
-        <v>118</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -824,8 +850,10 @@
           <t>Suffolk County</t>
         </is>
       </c>
-      <c r="B14">
-        <v>718</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>718</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -854,8 +882,10 @@
           <t>Worcester County</t>
         </is>
       </c>
-      <c r="B15">
-        <v>225</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -875,6 +905,38 @@
       <c r="F15" t="inlineStr">
         <is>
           <t>64.44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>$10,165,747,853</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>11.74%</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>-5.38%</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>60.30%</t>
         </is>
       </c>
     </row>
@@ -929,8 +991,10 @@
           <t>Congressional District 1</t>
         </is>
       </c>
-      <c r="B2">
-        <v>309</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -959,8 +1023,10 @@
           <t>Congressional District 2</t>
         </is>
       </c>
-      <c r="B3">
-        <v>286</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -989,8 +1055,10 @@
           <t>Congressional District 3</t>
         </is>
       </c>
-      <c r="B4">
-        <v>230</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1019,8 +1087,10 @@
           <t>Congressional District 4</t>
         </is>
       </c>
-      <c r="B5">
-        <v>267</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1049,8 +1119,10 @@
           <t>Congressional District 5</t>
         </is>
       </c>
-      <c r="B6">
-        <v>357</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1079,8 +1151,10 @@
           <t>Congressional District 6</t>
         </is>
       </c>
-      <c r="B7">
-        <v>237</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1109,8 +1183,10 @@
           <t>Congressional District 7</t>
         </is>
       </c>
-      <c r="B8">
-        <v>539</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>539</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1139,8 +1215,10 @@
           <t>Congressional District 8</t>
         </is>
       </c>
-      <c r="B9">
-        <v>434</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1169,8 +1247,10 @@
           <t>Congressional District 9</t>
         </is>
       </c>
-      <c r="B10">
-        <v>359</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1199,8 +1279,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B11">
-        <v>3018</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1274,8 +1356,10 @@
           <t>Between $100K and $499K</t>
         </is>
       </c>
-      <c r="B2">
-        <v>772</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>772</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1304,8 +1388,10 @@
           <t>Between $1M and $4.99M</t>
         </is>
       </c>
-      <c r="B3">
-        <v>928</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>928</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1334,8 +1420,10 @@
           <t>Between $500K and $999K</t>
         </is>
       </c>
-      <c r="B4">
-        <v>489</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>489</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1364,8 +1452,10 @@
           <t>Between $5M and $9.99M</t>
         </is>
       </c>
-      <c r="B5">
-        <v>230</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1394,8 +1484,10 @@
           <t>Greater than $10M</t>
         </is>
       </c>
-      <c r="B6">
-        <v>483</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1424,8 +1516,10 @@
           <t>Less than $100K</t>
         </is>
       </c>
-      <c r="B7">
-        <v>116</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1454,8 +1548,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B8">
-        <v>3018</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1529,8 +1625,10 @@
           <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
-      <c r="B2">
-        <v>361</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -1559,8 +1657,10 @@
           <t>Education (Excluding Universities)</t>
         </is>
       </c>
-      <c r="B3">
-        <v>372</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -1589,8 +1689,10 @@
           <t>Environment and Animals</t>
         </is>
       </c>
-      <c r="B4">
-        <v>125</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -1619,8 +1721,10 @@
           <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
-      <c r="B5">
-        <v>234</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1649,8 +1753,10 @@
           <t>Hospitals</t>
         </is>
       </c>
-      <c r="B6">
-        <v>8</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1679,8 +1785,10 @@
           <t>Human Services</t>
         </is>
       </c>
-      <c r="B7">
-        <v>852</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1709,8 +1817,10 @@
           <t>International, Foreign Affairs</t>
         </is>
       </c>
-      <c r="B8">
-        <v>45</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1739,8 +1849,10 @@
           <t>Mutual/Membership Benefit</t>
         </is>
       </c>
-      <c r="B9">
-        <v>1</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1769,8 +1881,10 @@
           <t>Public, Societal Benefit</t>
         </is>
       </c>
-      <c r="B10">
-        <v>242</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1799,8 +1913,10 @@
           <t>Religion Related</t>
         </is>
       </c>
-      <c r="B11">
-        <v>35</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1829,8 +1945,10 @@
           <t>Unclassified</t>
         </is>
       </c>
-      <c r="B12">
-        <v>687</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>687</t>
+        </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1859,8 +1977,10 @@
           <t>Universities</t>
         </is>
       </c>
-      <c r="B13">
-        <v>56</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1889,8 +2009,10 @@
           <t>Total</t>
         </is>
       </c>
-      <c r="B14">
-        <v>3018</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>3,018</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>

--- a/data/processed/state_overviews/massachusetts_overview.xlsx
+++ b/data/processed/state_overviews/massachusetts_overview.xlsx
@@ -364,27 +364,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
@@ -422,7 +422,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -431,512 +431,544 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>County</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Barnstable County</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>151</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$423,474,552</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>12.61%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-10.35%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>65.56%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Berkshire County</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>3,018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$111,463,153</t>
+          <t>$10,165,747,853</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.33%</t>
+          <t>11.74%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>-5.38%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>49.58%</t>
+          <t>60.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Bristol County</t>
+          <t>Barnstable County</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>151</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$367,318,906</t>
+          <t>$423,474,552</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.77%</t>
+          <t>12.61%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-8.84%</t>
+          <t>-10.35%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>66.67%</t>
+          <t>65.56%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Dukes County</t>
+          <t>Berkshire County</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>119</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$12,840,897</t>
+          <t>$111,463,153</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>24.19%</t>
+          <t>15.33%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.07%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>46.67%</t>
+          <t>49.58%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Essex County</t>
+          <t>Bristol County</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>271</t>
+          <t>147</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$573,711,863</t>
+          <t>$367,318,906</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.25%</t>
+          <t>10.77%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.04%</t>
+          <t>-8.84%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>62.36%</t>
+          <t>66.67%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Franklin County</t>
+          <t>Dukes County</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>30</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$34,705,521</t>
+          <t>$12,840,897</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>7.03%</t>
+          <t>24.19%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-25.52%</t>
+          <t>5.07%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>74.29%</t>
+          <t>46.67%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Hampden County</t>
+          <t>Essex County</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>153</t>
+          <t>271</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$642,620,761</t>
+          <t>$573,711,863</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.47%</t>
+          <t>11.25%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-12.38%</t>
+          <t>-6.04%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>64.71%</t>
+          <t>62.36%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Hampshire County</t>
+          <t>Franklin County</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$184,336,565</t>
+          <t>$34,705,521</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>13.59%</t>
+          <t>7.03%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-8.33%</t>
+          <t>-25.52%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>62.50%</t>
+          <t>74.29%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Middlesex County</t>
+          <t>Hampden County</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$3,522,554,953</t>
+          <t>$642,620,761</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>13.29%</t>
+          <t>11.47%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-2.31%</t>
+          <t>-12.38%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>55.41%</t>
+          <t>64.71%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Nantucket County</t>
+          <t>Hampshire County</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>96</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$7,595,704</t>
+          <t>$184,336,565</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>31.06%</t>
+          <t>13.59%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>6.40%</t>
+          <t>-8.33%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>38.71%</t>
+          <t>62.50%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Norfolk County</t>
+          <t>Middlesex County</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>702</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$573,629,276</t>
+          <t>$3,522,554,953</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.38%</t>
+          <t>13.29%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-2.72%</t>
+          <t>-2.31%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>59.01%</t>
+          <t>55.41%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Plymouth County</t>
+          <t>Nantucket County</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>31</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$198,197,463</t>
+          <t>$7,595,704</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.61%</t>
+          <t>31.06%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-2.82%</t>
+          <t>6.40%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>55.08%</t>
+          <t>38.71%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Suffolk County</t>
+          <t>Norfolk County</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>718</t>
+          <t>222</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>$2,909,376,536</t>
+          <t>$573,629,276</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>10.84%</t>
+          <t>11.38%</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>-7.96%</t>
+          <t>-2.72%</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>63.23%</t>
+          <t>59.01%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Worcester County</t>
+          <t>Plymouth County</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>118</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>$603,921,703</t>
+          <t>$198,197,463</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>8.82%</t>
+          <t>11.61%</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>-6.77%</t>
+          <t>-2.82%</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>64.44%</t>
+          <t>55.08%</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Suffolk County</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3,018</t>
+          <t>718</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>$10,165,747,853</t>
+          <t>$2,909,376,536</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>11.74%</t>
+          <t>10.84%</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>-5.38%</t>
+          <t>-7.96%</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>60.30%</t>
+          <t>63.23%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Worcester County</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>$603,921,703</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.82%</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>-6.77%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>64.44%</t>
         </is>
       </c>
     </row>
@@ -947,7 +979,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -956,352 +988,384 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Congressional District</t>
+          <t>Geography</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Congressional District 1</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>309</t>
+          <t>103,475</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>$810,434,787</t>
+          <t>$267,700,640,005</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.52%</t>
+          <t>9.05%</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>-9.00%</t>
+          <t>-12.83%</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>60.52%</t>
+          <t>67.35%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Congressional District 2</t>
+          <t>Massachusetts</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>286</t>
+          <t>3,018</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$698,888,291</t>
+          <t>$10,165,747,853</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>10.07%</t>
+          <t>11.74%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-7.08%</t>
+          <t>-5.38%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>63.64%</t>
+          <t>60.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Congressional District 3</t>
+          <t>1st Congressional district</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>309</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$608,155,140</t>
+          <t>$810,434,787</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.27%</t>
+          <t>11.52%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.24%</t>
+          <t>-9.00%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>57.83%</t>
+          <t>60.52%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Congressional District 4</t>
+          <t>2nd Congressional district</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>267</t>
+          <t>286</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$691,593,479</t>
+          <t>$698,888,291</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>12.61%</t>
+          <t>10.07%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-2.14%</t>
+          <t>-7.08%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>55.43%</t>
+          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Congressional District 5</t>
+          <t>3rd Congressional district</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>357</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$1,734,751,035</t>
+          <t>$608,155,140</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>11.79%</t>
+          <t>13.27%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-3.56%</t>
+          <t>-5.24%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>58.82%</t>
+          <t>57.83%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Congressional District 6</t>
+          <t>4th Congressional district</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>267</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>$920,998,514</t>
+          <t>$691,593,479</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.95%</t>
+          <t>12.61%</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>-5.97%</t>
+          <t>-2.14%</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>62.03%</t>
+          <t>55.43%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Congressional District 7</t>
+          <t>5th Congressional district</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>539</t>
+          <t>357</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>$3,069,340,319</t>
+          <t>$1,734,751,035</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>11.39%</t>
+          <t>11.79%</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>-6.90%</t>
+          <t>-3.56%</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>62.71%</t>
+          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Congressional District 8</t>
+          <t>6th Congressional district</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>434</t>
+          <t>237</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$1,016,216,002</t>
+          <t>$920,998,514</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>10.50%</t>
+          <t>10.95%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-6.30%</t>
+          <t>-5.97%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.29%</t>
+          <t>62.03%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Congressional District 9</t>
+          <t>7th Congressional district</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>359</t>
+          <t>539</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$615,370,286</t>
+          <t>$3,069,340,319</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>14.81%</t>
+          <t>11.39%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-3.67%</t>
+          <t>-6.90%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>58.22%</t>
+          <t>62.71%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>8th Congressional district</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3,018</t>
+          <t>434</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$10,165,747,853</t>
+          <t>$1,016,216,002</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>11.74%</t>
+          <t>10.50%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-5.38%</t>
+          <t>-6.30%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>60.30%</t>
+          <t>61.29%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>9th Congressional district</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>$615,370,286</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.81%</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>-3.67%</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>58.22%</t>
         </is>
       </c>
     </row>
@@ -1326,34 +1390,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Between $100K and $499K</t>
+          <t>$100K to $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1385,128 +1449,128 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Between $1M and $4.99M</t>
+          <t>$10M or more</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>483</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$672,947,375</t>
+          <t>$8,871,097,129</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>12.39%</t>
+          <t>6.41%</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-5.88%</t>
+          <t>-6.83%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>59.81%</t>
+          <t>68.32%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Between $500K and $999K</t>
+          <t>$1M to $4.9M</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>928</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$111,110,741</t>
+          <t>$672,947,375</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>13.77%</t>
+          <t>12.39%</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-3.66%</t>
+          <t>-5.88%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>58.28%</t>
+          <t>59.81%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Between $5M and $9.99M</t>
+          <t>$500K to $999K</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>489</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$432,831,622</t>
+          <t>$111,110,741</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>13.77%</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-5.30%</t>
+          <t>-3.66%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>58.28%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Greater than $10M</t>
+          <t>$5M to $9.9M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>230</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$8,871,097,129</t>
+          <t>$432,831,622</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6.41%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-6.83%</t>
+          <t>-5.30%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>68.32%</t>
+          <t>60.87%</t>
         </is>
       </c>
     </row>
@@ -1595,34 +1659,34 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>No. of 990 Filers w/ Gov Grants</t>
+          <t>Number of 990 filers with government grants</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Total Gov Grants ($)</t>
+          <t>Total government grants ($)</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus (%)</t>
+          <t>Operating surplus with government grants (%)</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating Surplus w/o Gov Grants (%)</t>
+          <t>Operating surplus without government grants (%)</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 Filers w/ Gov Grants at Risk</t>
+          <t>Share of 990 filers with government grants at risk</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, Culture, and Humanities</t>
+          <t>Arts, culture, and humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -1654,7 +1718,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education (Excluding Universities)</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -1686,7 +1750,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and Animals</t>
+          <t>Environment and animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -1718,7 +1782,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health (Excluding Hospitals)</t>
+          <t>Health</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -1782,7 +1846,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human Services</t>
+          <t>Human services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1814,7 +1878,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, Foreign Affairs</t>
+          <t>International, foreign affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1846,160 +1910,160 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Mutual/Membership Benefit</t>
+          <t>Public, societal benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>242</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$23,120</t>
+          <t>$419,647,334</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-90.32%</t>
+          <t>11.08%</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-95.95%</t>
+          <t>-11.38%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>61.98%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Public, Societal Benefit</t>
+          <t>Religion-related</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>35</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$419,647,334</t>
+          <t>$12,350,058</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>16.06%</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-11.38%</t>
+          <t>-0.30%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>61.98%</t>
+          <t>51.43%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Religion Related</t>
+          <t>Mutual/membership benefit</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$12,350,058</t>
+          <t>$23,120</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>16.06%</t>
+          <t>-90.32%</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>-95.95%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>51.43%</t>
+          <t>100.00%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>56</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$1,942,850,201</t>
+          <t>$2,076,673,548</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-7.16%</t>
+          <t>-0.89%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>62.15%</t>
+          <t>55.36%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>687</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$2,076,673,548</t>
+          <t>$1,942,850,201</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>-7.16%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>55.36%</t>
+          <t>62.15%</t>
         </is>
       </c>
     </row>

--- a/data/processed/state_overviews/massachusetts_overview.xlsx
+++ b/data/processed/state_overviews/massachusetts_overview.xlsx
@@ -364,54 +364,54 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>60.30%</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
           <t>3,018</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>$10,165,747,853</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>60.30%</t>
         </is>
       </c>
     </row>
@@ -436,27 +436,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -468,27 +468,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -500,27 +500,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>60.30%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,018</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$10,165,747,853</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60.30%</t>
         </is>
       </c>
     </row>
@@ -532,27 +532,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>65.56%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>151</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$423,474,552</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>12.61%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-10.35%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>65.56%</t>
         </is>
       </c>
     </row>
@@ -564,27 +564,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>49.58%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>119</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$111,463,153</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>15.33%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>0.77%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>49.58%</t>
         </is>
       </c>
     </row>
@@ -596,27 +596,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>147</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$367,318,906</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>10.77%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-8.84%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -628,27 +628,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>46.67%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>30</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$12,840,897</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>24.19%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>5.07%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>46.67%</t>
         </is>
       </c>
     </row>
@@ -660,27 +660,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>62.36%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>271</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$573,711,863</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.25%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-6.04%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>62.36%</t>
         </is>
       </c>
     </row>
@@ -692,27 +692,27 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>74.29%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>35</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$34,705,521</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>7.03%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-25.52%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>74.29%</t>
         </is>
       </c>
     </row>
@@ -724,27 +724,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>64.71%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>153</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$642,620,761</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.47%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-12.38%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>64.71%</t>
         </is>
       </c>
     </row>
@@ -756,27 +756,27 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>62.50%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>96</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$184,336,565</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>13.59%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-8.33%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>62.50%</t>
         </is>
       </c>
     </row>
@@ -788,27 +788,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>55.41%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>702</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$3,522,554,953</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>13.29%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-2.31%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>55.41%</t>
         </is>
       </c>
     </row>
@@ -820,27 +820,27 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>38.71%</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>31</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>$7,595,704</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>31.06%</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>6.40%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>38.71%</t>
         </is>
       </c>
     </row>
@@ -852,27 +852,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>59.01%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>222</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$573,629,276</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.38%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-2.72%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>59.01%</t>
         </is>
       </c>
     </row>
@@ -884,27 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>55.08%</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>118</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>$198,197,463</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>11.61%</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>-2.82%</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>55.08%</t>
         </is>
       </c>
     </row>
@@ -916,27 +916,27 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>63.23%</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>718</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>$2,909,376,536</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>10.84%</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>-7.96%</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>63.23%</t>
         </is>
       </c>
     </row>
@@ -948,27 +948,27 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>64.44%</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>225</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>$603,921,703</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>8.82%</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>-6.77%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>64.44%</t>
         </is>
       </c>
     </row>
@@ -993,27 +993,27 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
@@ -1025,27 +1025,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>67.35%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>103,475</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$267,700,640,005</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>9.05%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-12.83%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>67.35%</t>
         </is>
       </c>
     </row>
@@ -1057,315 +1057,315 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>60.30%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>3,018</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$10,165,747,853</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>60.30%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1st Congressional district</t>
+          <t>Congressional District 1</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>60.52%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>309</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$810,434,787</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>11.52%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>-9.00%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>60.52%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2nd Congressional district</t>
+          <t>Congressional District 2</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>63.64%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>286</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$698,888,291</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>10.07%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-7.08%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>63.64%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>3rd Congressional district</t>
+          <t>Congressional District 3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>57.83%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>230</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$608,155,140</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>13.27%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-5.24%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>57.83%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4th Congressional district</t>
+          <t>Congressional District 4</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>55.43%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>267</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$691,593,479</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>12.61%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-2.14%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>55.43%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>5th Congressional district</t>
+          <t>Congressional District 5</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>58.82%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>357</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$1,734,751,035</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.79%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.56%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>58.82%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6th Congressional district</t>
+          <t>Congressional District 6</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>62.03%</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>237</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>$920,998,514</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>10.95%</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>-5.97%</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>62.03%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>7th Congressional district</t>
+          <t>Congressional District 7</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>62.71%</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>539</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>$3,069,340,319</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>11.39%</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>-6.90%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>62.71%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>8th Congressional district</t>
+          <t>Congressional District 8</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>61.29%</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>434</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>$1,016,216,002</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>10.50%</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>-6.30%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>61.29%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>9th Congressional district</t>
+          <t>Congressional District 9</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>58.22%</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>359</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>$615,370,286</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>14.81%</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>-3.67%</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>58.22%</t>
         </is>
       </c>
     </row>
@@ -1390,187 +1390,187 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>$100K to $499K</t>
+          <t>Between $100K and $499K</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>57.77%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>772</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$72,671,079</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>14.57%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-4.66%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>57.77%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>$10M or more</t>
+          <t>Between $1M and $4.99M</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>483</t>
+          <t>59.81%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>$8,871,097,129</t>
+          <t>928</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>6.41%</t>
+          <t>$672,947,375</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>-6.83%</t>
+          <t>12.39%</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>68.32%</t>
+          <t>-5.88%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>$1M to $4.9M</t>
+          <t>Between $500K and $999K</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>928</t>
+          <t>58.28%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>$672,947,375</t>
+          <t>489</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>12.39%</t>
+          <t>$111,110,741</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>-5.88%</t>
+          <t>13.77%</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>59.81%</t>
+          <t>-3.66%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>$500K to $999K</t>
+          <t>Between $5M and $9.99M</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>489</t>
+          <t>60.87%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>$111,110,741</t>
+          <t>230</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>13.77%</t>
+          <t>$432,831,622</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>-3.66%</t>
+          <t>8.98%</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>58.28%</t>
+          <t>-5.30%</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>$5M to $9.9M</t>
+          <t>Greater than $10M</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>68.32%</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>$432,831,622</t>
+          <t>483</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8.98%</t>
+          <t>$8,871,097,129</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>-5.30%</t>
+          <t>6.41%</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>60.87%</t>
+          <t>-6.83%</t>
         </is>
       </c>
     </row>
@@ -1582,27 +1582,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>55.17%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>116</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$5,089,907</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>28.37%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-5.86%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>55.17%</t>
         </is>
       </c>
     </row>
@@ -1614,27 +1614,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>60.30%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>3,018</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$10,165,747,853</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>60.30%</t>
         </is>
       </c>
     </row>
@@ -1659,155 +1659,155 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Share of 990 filers with government grants at risk</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Number of 990 filers with government grants</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Total government grants ($)</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Operating surplus with government grants (%)</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Operating surplus without government grants (%)</t>
+          <t>Size of operating surplus with government grants</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>Share of 990 filers with government grants at risk</t>
+          <t>Size of operating surplus without government grants</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Arts, culture, and humanities</t>
+          <t>Arts, Culture, and Humanities</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>58.17%</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>361</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>$175,361,193</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>15.99%</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>-2.53%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>58.17%</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Education (Excluding Universities)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>52.69%</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>372</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>$599,606,169</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>15.07%</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>-1.08%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>52.69%</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Environment and animals</t>
+          <t>Environment and Animals</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>39.20%</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>125</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>$86,384,192</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>25.48%</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>6.33%</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>39.20%</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health</t>
+          <t>Health (Excluding Hospitals)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>66.67%</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>234</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>$1,379,136,490</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>8.98%</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-8.00%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>66.67%</t>
         </is>
       </c>
     </row>
@@ -1819,251 +1819,251 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>87.50%</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>8</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>$203,091,046</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>-0.03%</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>-25.73%</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>87.50%</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Human services</t>
+          <t>Human Services</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>64.44%</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>852</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>$2,686,654,793</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>10.04%</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>-8.83%</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>64.44%</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>International, foreign affairs</t>
+          <t>International, Foreign Affairs</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>57.78%</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>45</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>$583,969,709</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>5.26%</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>-3.09%</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>57.78%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Public, societal benefit</t>
+          <t>Mutual/Membership Benefit</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>100.00%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>$419,647,334</t>
+          <t>1</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>11.08%</t>
+          <t>$23,120</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>-11.38%</t>
+          <t>-90.32%</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>61.98%</t>
+          <t>-95.95%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Religion-related</t>
+          <t>Public, Societal Benefit</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>61.98%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>$12,350,058</t>
+          <t>242</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>16.06%</t>
+          <t>$419,647,334</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>-0.30%</t>
+          <t>11.08%</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>51.43%</t>
+          <t>-11.38%</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mutual/membership benefit</t>
+          <t>Religion Related</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>51.43%</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>$23,120</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>-90.32%</t>
+          <t>$12,350,058</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>-95.95%</t>
+          <t>16.06%</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>100.00%</t>
+          <t>-0.30%</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Universities</t>
+          <t>Unclassified</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>62.15%</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>$2,076,673,548</t>
+          <t>687</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3.72%</t>
+          <t>$1,942,850,201</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>-0.89%</t>
+          <t>11.76%</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>55.36%</t>
+          <t>-7.16%</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Unclassified</t>
+          <t>Universities</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>55.36%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>$1,942,850,201</t>
+          <t>56</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>11.76%</t>
+          <t>$2,076,673,548</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>-7.16%</t>
+          <t>3.72%</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>62.15%</t>
+          <t>-0.89%</t>
         </is>
       </c>
     </row>
@@ -2075,27 +2075,27 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>60.30%</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>3,018</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>$10,165,747,853</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>11.74%</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>-5.38%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>60.30%</t>
         </is>
       </c>
     </row>
